--- a/tex/Results.xlsx
+++ b/tex/Results.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="176" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="176" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="large_repos" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="246">
   <si>
     <t>Repositories</t>
   </si>
@@ -344,111 +345,114 @@
     <t>https://github.com/uber-common/react-vis</t>
   </si>
   <si>
+    <t>repo10</t>
+  </si>
+  <si>
+    <t>https://github.com/open-source-society/computer-science</t>
+  </si>
+  <si>
+    <t>add “github.com”</t>
+  </si>
+  <si>
+    <t>D* -  0.220</t>
+  </si>
+  <si>
+    <t>time git log --oneline -Sgithub.com -- README.md | wc -l – 0.028 (21 commits)</t>
+  </si>
+  <si>
+    <t>search “collaborate”</t>
+  </si>
+  <si>
+    <t>time git rev-list --all | GIT_PAGER=cat xargs git grep 'collaborate' | wc -l – 0.391 (842 lines)</t>
+  </si>
+  <si>
+    <t>5 to 2-5</t>
+  </si>
+  <si>
+    <t>D – 0.06s</t>
+  </si>
+  <si>
+    <t>time git log --oneline -S5 -- README.md | wc -l – 0.009 (26 commits),  time git log --oneline -S2-5 -- README.md | wc -l – 0.014 (1 commit)</t>
+  </si>
+  <si>
+    <t>repo11</t>
+  </si>
+  <si>
+    <t>https://github.com/git-up/GitUp</t>
+  </si>
+  <si>
+    <t>add “libgit2”</t>
+  </si>
+  <si>
+    <t>D*- 0.098</t>
+  </si>
+  <si>
+    <t>ime git log --oneline -Slibgit2 -- README.md | wc -l – 0.024 (4 commits)</t>
+  </si>
+  <si>
+    <t>search “coding style”</t>
+  </si>
+  <si>
+    <t>time git rev-list --all | GIT_PAGER=cat xargs git grep 'coding style' | wc -l – 11.103 (240 lines)</t>
+  </si>
+  <si>
+    <t>add “wiki”</t>
+  </si>
+  <si>
+    <t>D* = 0.046</t>
+  </si>
+  <si>
+    <t>time git log --oneline -Swiki -- README.md | wc -l – 0.052 (1 commit)</t>
+  </si>
+  <si>
+    <t>repo12</t>
+  </si>
+  <si>
+    <t>https://github.com/vhf/free-programming-books</t>
+  </si>
+  <si>
+    <t>No , yes(Patience)</t>
+  </si>
+  <si>
+    <t>free-programming-books.md</t>
+  </si>
+  <si>
+    <t>repo13</t>
+  </si>
+  <si>
+    <t>https://github.com/tidwall/tile38</t>
+  </si>
+  <si>
+    <t>repo14</t>
+  </si>
+  <si>
+    <t>https://github.com/laobie/NineGridImageView</t>
+  </si>
+  <si>
+    <t>repo15</t>
+  </si>
+  <si>
+    <t>https://github.com/uber-common/cpustat</t>
+  </si>
+  <si>
+    <t>cpustat.go</t>
+  </si>
+  <si>
+    <t>repo16</t>
+  </si>
+  <si>
+    <t>https://github.com/zingchart/awesome-charting</t>
+  </si>
+  <si>
+    <t>repo17</t>
+  </si>
+  <si>
+    <t>https://github.com/mamedev/mame</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>repo10</t>
-  </si>
-  <si>
-    <t>https://github.com/open-source-society/computer-science</t>
-  </si>
-  <si>
-    <t>add “github.com”</t>
-  </si>
-  <si>
-    <t>D* -  0.220</t>
-  </si>
-  <si>
-    <t>time git log --oneline -Sgithub.com -- README.md | wc -l – 0.028 (21 commits)</t>
-  </si>
-  <si>
-    <t>search “collaborate”</t>
-  </si>
-  <si>
-    <t>time git rev-list --all | GIT_PAGER=cat xargs git grep 'collaborate' | wc -l – 0.391 (842 lines)</t>
-  </si>
-  <si>
-    <t>5 to 2-5</t>
-  </si>
-  <si>
-    <t>D – 0.06s</t>
-  </si>
-  <si>
-    <t>time git log --oneline -S5 -- README.md | wc -l – 0.009 (26 commits),  time git log --oneline -S2-5 -- README.md | wc -l – 0.014 (1 commit)</t>
-  </si>
-  <si>
-    <t>repo11</t>
-  </si>
-  <si>
-    <t>https://github.com/git-up/GitUp</t>
-  </si>
-  <si>
-    <t>add “libgit2”</t>
-  </si>
-  <si>
-    <t>D*- 0.098</t>
-  </si>
-  <si>
-    <t>ime git log --oneline -Slibgit2 -- README.md | wc -l – 0.024 (4 commits)</t>
-  </si>
-  <si>
-    <t>search “coding style”</t>
-  </si>
-  <si>
-    <t>time git rev-list --all | GIT_PAGER=cat xargs git grep 'coding style' | wc -l – 11.103 (240 lines)</t>
-  </si>
-  <si>
-    <t>add “wiki”</t>
-  </si>
-  <si>
-    <t>D* = 0.046</t>
-  </si>
-  <si>
-    <t>time git log --oneline -Swiki -- README.md | wc -l – 0.052 (1 commit)</t>
-  </si>
-  <si>
-    <t>repo12</t>
-  </si>
-  <si>
-    <t>https://github.com/vhf/free-programming-books</t>
-  </si>
-  <si>
-    <t>free-programming-books.md</t>
-  </si>
-  <si>
-    <t>repo13</t>
-  </si>
-  <si>
-    <t>https://github.com/tidwall/tile38</t>
-  </si>
-  <si>
-    <t>repo14</t>
-  </si>
-  <si>
-    <t>https://github.com/laobie/NineGridImageView</t>
-  </si>
-  <si>
-    <t>repo15</t>
-  </si>
-  <si>
-    <t>https://github.com/uber-common/cpustat</t>
-  </si>
-  <si>
-    <t>cpustat.go</t>
-  </si>
-  <si>
-    <t>repo16</t>
-  </si>
-  <si>
-    <t>https://github.com/zingchart/awesome-charting</t>
-  </si>
-  <si>
-    <t>repo17</t>
-  </si>
-  <si>
-    <t>https://github.com/mamedev/mame</t>
-  </si>
-  <si>
     <t>repo18</t>
   </si>
   <si>
@@ -545,6 +549,9 @@
     <t>https://github.com/clojure/clojure</t>
   </si>
   <si>
+    <t>no, yes(Patience)</t>
+  </si>
+  <si>
     <t>src/jvm/clojure/lang/Compiler.java</t>
   </si>
   <si>
@@ -630,6 +637,165 @@
   </si>
   <si>
     <t>201, 150</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># of Commits (As of September 28</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2017)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/d3/d3</t>
+  </si>
+  <si>
+    <t>d3.js</t>
+  </si>
+  <si>
+    <t>https://github.com/jquery/jquery</t>
+  </si>
+  <si>
+    <t>src/core.js</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/angular.js</t>
+  </si>
+  <si>
+    <t>src/Angular.js</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/angular</t>
+  </si>
+  <si>
+    <t>https://github.com/facebook/react</t>
+  </si>
+  <si>
+    <t>https://github.com/facebook/react-native</t>
+  </si>
+  <si>
+    <t>https://github.com/twbs/bootstrap</t>
+  </si>
+  <si>
+    <t>dist/css/bootstrap.css</t>
+  </si>
+  <si>
+    <t>https://github.com/adobe/brackets</t>
+  </si>
+  <si>
+    <t>src/nls/root/strings.js</t>
+  </si>
+  <si>
+    <t>https://github.com/nodejs/node</t>
+  </si>
+  <si>
+    <t>src/node.cc</t>
+  </si>
+  <si>
+    <t>https://github.com/Microsoft/TypeScript</t>
+  </si>
+  <si>
+    <t>src/compiler/checker.ts</t>
+  </si>
+  <si>
+    <t>https://github.com/meteor/meteor</t>
+  </si>
+  <si>
+    <t>History.md</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/tensorflow</t>
+  </si>
+  <si>
+    <t>tensorflow/core/BUILD</t>
+  </si>
+  <si>
+    <t>https://github.com/Microsoft/vscode</t>
+  </si>
+  <si>
+    <t>src/vs/workbench/parts/debug/electron-browser/debugService.ts</t>
+  </si>
+  <si>
+    <t>https://github.com/django/django</t>
+  </si>
+  <si>
+    <t>AUTHORS</t>
+  </si>
+  <si>
+    <t>https://github.com/atom/atom</t>
+  </si>
+  <si>
+    <t>https://github.com/golang/go</t>
+  </si>
+  <si>
+    <t>CONTRIBUTORS</t>
+  </si>
+  <si>
+    <t>https://github.com/git/git</t>
+  </si>
+  <si>
+    <t>Makefile</t>
+  </si>
+  <si>
+    <t>(Babylon file size limit exceeded)</t>
+  </si>
+  <si>
+    <t>src/mame/mame.lst</t>
+  </si>
+  <si>
+    <t>https://github.com/kubernetes/kubernetes</t>
+  </si>
+  <si>
+    <t>pkg/kubelet/kubelet.go</t>
+  </si>
+  <si>
+    <t>https://github.com/apple/swift</t>
+  </si>
+  <si>
+    <t>lib/Sema/TypeCheckDecl.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/Homebrew/legacy-homebrew</t>
+  </si>
+  <si>
+    <t>Library/Homebrew/formula.rb</t>
+  </si>
+  <si>
+    <t>https://github.com/rails/rails</t>
+  </si>
+  <si>
+    <t>activerecord/CHANGELOG.md</t>
+  </si>
+  <si>
+    <t>https://github.com/rust-lang/rust</t>
+  </si>
+  <si>
+    <t>src/libsyntax/parse/parser.rs</t>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux</t>
+  </si>
+  <si>
+    <t>MAINTAINERS, drivers/gpu/drm/i915/intel_display.c</t>
+  </si>
+  <si>
+    <t>7862,3524</t>
   </si>
 </sst>
 </file>
@@ -639,7 +805,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -674,11 +840,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -756,7 +917,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -779,13 +940,14 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="34.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.4795918367347"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="1" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5204081632653"/>
@@ -798,6 +960,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,6 +993,7 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
@@ -1235,7 +1399,7 @@
       <c r="N10" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1247,7 +1411,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>464</v>
@@ -1258,13 +1422,22 @@
       <c r="F11" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1279,39 +1452,39 @@
         <v>182</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>0.088</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1326,42 +1499,42 @@
         <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>0.33</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>4366</v>
@@ -1461,7 +1634,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>50774</v>
@@ -1471,10 +1644,10 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -1483,7 +1656,7 @@
         <v>246</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>52</v>
@@ -1491,10 +1664,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -1511,10 +1684,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -1531,13 +1704,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>639</v>
@@ -1551,10 +1724,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -1563,7 +1736,7 @@
         <v>163</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>37</v>
@@ -1571,10 +1744,10 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -1583,7 +1756,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>22</v>
@@ -1591,10 +1764,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -1611,10 +1784,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -1623,7 +1796,7 @@
         <v>1223</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>290</v>
@@ -1631,10 +1804,10 @@
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -1643,7 +1816,7 @@
         <v>4066</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>307</v>
@@ -1651,10 +1824,10 @@
     </row>
     <row r="29" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
@@ -1663,18 +1836,18 @@
         <v>1463</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
@@ -1683,7 +1856,7 @@
         <v>1584</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>120</v>
@@ -1691,19 +1864,19 @@
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>3050</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>536</v>
@@ -1711,10 +1884,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
@@ -1723,7 +1896,7 @@
         <v>2060</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>220</v>
@@ -1731,10 +1904,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>13</v>
@@ -1743,7 +1916,7 @@
         <v>2693</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>177</v>
@@ -1751,10 +1924,10 @@
     </row>
     <row r="34" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>13</v>
@@ -1763,7 +1936,7 @@
         <v>4047</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>171</v>
@@ -1771,10 +1944,10 @@
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>13</v>
@@ -1791,10 +1964,10 @@
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>13</v>
@@ -1803,7 +1976,7 @@
         <v>1480</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>144</v>
@@ -1811,10 +1984,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>13</v>
@@ -1823,7 +1996,7 @@
         <v>2169</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>105</v>
@@ -1831,10 +2004,10 @@
     </row>
     <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>13</v>
@@ -1843,7 +2016,7 @@
         <v>2013</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>120</v>
@@ -1851,10 +2024,10 @@
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
@@ -1871,10 +2044,10 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
@@ -1883,7 +2056,7 @@
         <v>3141</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>81</v>
@@ -1891,10 +2064,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>13</v>
@@ -1903,7 +2076,7 @@
         <v>2900</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>174</v>
@@ -1911,10 +2084,10 @@
     </row>
     <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -1923,10 +2096,10 @@
         <v>3329</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1946,4 +2119,445 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4099</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>6268</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>8590</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>8621</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>9074</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10682</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>11870</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>16854</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>17529</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>18954</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>19430</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>19613</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>22449</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>24314</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>24970</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>33281</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>7420</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>33997</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>48830</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>54052</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>55419</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>59595</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>63881</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>64815</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>68065</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>706449</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://github.com/angular/angular.js"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://github.com/facebook/react"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://github.com/facebook/react-native"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://github.com/twbs/bootstrap"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>